--- a/medicine/Mort/Terrorisme_en_1970/Terrorisme_en_1970.xlsx
+++ b/medicine/Mort/Terrorisme_en_1970/Terrorisme_en_1970.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de l'année 1970, les tensions en Irlande du Nord font vingt-neuf morts, dont dix-neuf civils[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'année 1970, les tensions en Irlande du Nord font vingt-neuf morts, dont dix-neuf civils.
 </t>
         </is>
       </c>
@@ -513,26 +525,160 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-21 février, Suisse : une bombe placée par le Front populaire de libération de la Palestine explose neuf minutes après le décollage du vol Swissair SR-330 reliant Zurich à Tel Aviv-Jaffa, et endommage irrémédiablement le Convair CV-990 Coronado immatriculé HB-ICD « Basel-Land ». L'avion s'écrase dans une forêt à proximité de Würenlingen, tuant les quarante-sept occupants de l'appareil. La bombe était destinée à un avion de la compagnie israélienne El Al, mais à cause de retard de ce dernier le bagage cachant l'explosif a été chargé à bord du vol Swissair[2].
-Mars
-Avril
-Mai
-Juin
-Juillet
-22 juillet, Italie : le train reliant Palerme à Turin est volontairement déraillé par la 'Ndrangheta à Gioia Tauro, vraisemblablement à l'aide d'explosifs. Le bilan est de six morts et soixante-six blessés[réf. nécessaire].
-Août
-24 août, États-Unis : une bombe placée par des militants pacifistes à l'université de la United States Army[n 1] à Madison, dans le Wisconsin, explose et tue un chercheur[3].
-Septembre
-Octobre
-5 octobre, Canada : le Front de libération du Québec enlève le commissaire commercial britannique James Richard Cross[1].
-10 octobre, Canada : le Front de libération du Québec enlève le vice-premier ministre et ministre du Travail québécois, Pierre Laporte[1].
-16 octobre, Canada : à la suite de la vague de violences commises par le Front de libération du Québec, le gouvernement canadien autorise la police à arrêter cinq cents personnes suspectées d'appartenir au FLQ, ce qui met fin aux violences[1].
-18 octobre, Canada : Pierre Laporte est retrouvé mort dans le coffre d'une voiture sur un terrain vague. L'annonce de sa mort a été faite la veille par le Front de libération du Québec[1].
-Novembre
-Décembre
-3 décembre, Canada : le Front de libération du Québec libère James Richard Cross[1].</t>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>21 février, Suisse : une bombe placée par le Front populaire de libération de la Palestine explose neuf minutes après le décollage du vol Swissair SR-330 reliant Zurich à Tel Aviv-Jaffa, et endommage irrémédiablement le Convair CV-990 Coronado immatriculé HB-ICD « Basel-Land ». L'avion s'écrase dans une forêt à proximité de Würenlingen, tuant les quarante-sept occupants de l'appareil. La bombe était destinée à un avion de la compagnie israélienne El Al, mais à cause de retard de ce dernier le bagage cachant l'explosif a été chargé à bord du vol Swissair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22 juillet, Italie : le train reliant Palerme à Turin est volontairement déraillé par la 'Ndrangheta à Gioia Tauro, vraisemblablement à l'aide d'explosifs. Le bilan est de six morts et soixante-six blessés[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 août, États-Unis : une bombe placée par des militants pacifistes à l'université de la United States Army[n 1] à Madison, dans le Wisconsin, explose et tue un chercheur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 octobre, Canada : le Front de libération du Québec enlève le commissaire commercial britannique James Richard Cross.
+10 octobre, Canada : le Front de libération du Québec enlève le vice-premier ministre et ministre du Travail québécois, Pierre Laporte.
+16 octobre, Canada : à la suite de la vague de violences commises par le Front de libération du Québec, le gouvernement canadien autorise la police à arrêter cinq cents personnes suspectées d'appartenir au FLQ, ce qui met fin aux violences.
+18 octobre, Canada : Pierre Laporte est retrouvé mort dans le coffre d'une voiture sur un terrain vague. L'annonce de sa mort a été faite la veille par le Front de libération du Québec.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1970</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 décembre, Canada : le Front de libération du Québec libère James Richard Cross.</t>
         </is>
       </c>
     </row>
